--- a/DateBase/orders/Fresh bloom Flowers_2025-11-11.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-11.xlsx
@@ -1034,6 +1034,9 @@
       <c r="C71" t="str">
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1095,7 +1098,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06101235122013.510581231812955512101035801010568555585166555553823010101015159131055301015510105101015910200</v>
+        <v>06101235122013.510581231812955512101035801010568555585166555553823010101015159131055301015510105101015910202</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-11.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-11.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1035,12 +1035,365 @@
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
       <c r="F71" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>5</v>
+      </c>
+      <c r="C73" t="str">
+        <v>452_粉吊鸟_pink hanging heliconia_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>1</v>
+      </c>
+      <c r="C74" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>532_灯苔_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">463_玉兰枝_magnolia flower
+white/purple_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
         <v>2</v>
+      </c>
+      <c r="C82" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F86" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F87" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>3</v>
+      </c>
+      <c r="C89" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F89" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F93" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F95" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>4</v>
+      </c>
+      <c r="C97" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F97" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F98" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F99" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>677_洋牡丹大香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F101" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>5</v>
+      </c>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F104" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>6</v>
+      </c>
+      <c r="C106" t="str">
+        <v>104_绣球重瓣紫_Hydrangea Purple D_Hydrangea L._1stem</v>
+      </c>
+      <c r="F106" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F107" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F108" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F109" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F110" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F111" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F112" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L112"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1098,7 +1451,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>06101235122013.510581231812955512101035801010568555585166555553823010101015159131055301015510105101015910202</v>
+        <v>06101235122013.5105812318129555121010358010105685555851665555538230101010151591310553010155101051010159102020101055152010101015165151555105225610151010105510101010201020201010151510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Fresh bloom Flowers_2025-11-11.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-11.xlsx
@@ -1453,6 +1453,9 @@
       <c r="G2" t="str">
         <v>06101235122013.5105812318129555121010358010105685555851665555538230101010151591310553010155101051010159102020101055152010101015165151555105225610151010105510101010201020201010151510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
